--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="VerifyLoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="VerifyInvalidlogin" sheetId="2" r:id="rId2"/>
+    <sheet name="VerifyLoginLogout" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>LoginTitle</t>
   </si>
@@ -39,6 +40,9 @@
   </si>
   <si>
     <t>mmki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Username </t>
   </si>
 </sst>
 </file>
@@ -410,7 +414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -443,4 +447,27 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="VerifyLoginPage" sheetId="1" r:id="rId1"/>
@@ -16,14 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>LoginTitle</t>
   </si>
   <si>
-    <t>actiTime-Login</t>
-  </si>
-  <si>
     <t>Username</t>
   </si>
   <si>
@@ -43,6 +40,21 @@
   </si>
   <si>
     <t xml:space="preserve">Username </t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>actiTIME - Login</t>
+  </si>
+  <si>
+    <t>actiTIME - Enter Time-Track</t>
   </si>
 </sst>
 </file>
@@ -140,7 +152,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,7 +187,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -387,12 +399,12 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -402,7 +414,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -418,30 +430,30 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -451,20 +463,43 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
